--- a/src/main/resources/xlsx/pcs/re-6.xlsx
+++ b/src/main/resources/xlsx/pcs/re-6.xlsx
@@ -44,6 +44,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分党委名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">参加两委委员候选人推荐提名情况汇总表
 </t>
@@ -56,12 +60,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（“一下一上”阶段）</t>
+      <t>（“stage”阶段）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分党委名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>

--- a/src/main/resources/xlsx/pcs/re-6.xlsx
+++ b/src/main/resources/xlsx/pcs/re-6.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分党委名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">参加两委委员候选人推荐提名情况汇总表
 </t>
@@ -62,6 +58,10 @@
       </rPr>
       <t>（“stage”阶段）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级党组织名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
